--- a/Etapa Elaboración - Iteración 2/Estimacion 03 Caso Pesimista- Kairos - NexTech.xlsx
+++ b/Etapa Elaboración - Iteración 2/Estimacion 03 Caso Pesimista- Kairos - NexTech.xlsx
@@ -53,20 +53,20 @@
 Se refiere a la experiencia en el análisis de requerimientos y modelado orientado a objetos del Analista Principal.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B81">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk4Q
+Autor    (2023-08-29 20:18:46)
+Análisis/Diseño/Pruebas/Sobrecarga</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B61">
       <text>
         <t xml:space="preserve">======
 ID#AAABrntIk30
 Autor    (2023-08-29 20:18:46)
 Este es un factor con signo opuesto a los factores E6 y anteriores. Cuanto mayor la evaluación, peor el resultado.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B81">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABrntIk4Q
-Autor    (2023-08-29 20:18:46)
-Análisis/Diseño/Pruebas/Sobrecarga</t>
       </text>
     </comment>
     <comment authorId="0" ref="C15">
@@ -167,20 +167,20 @@
 ¿Cuál es la importancia del tiempo de respuesta de la aplicación para el usuario final?</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B60">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk5Q
+Autor    (2023-08-29 20:18:46)
+Evalúa si los analistas han sido capaces de mantener estables los requerimientos en el pasado, minimizando los cambios del software.</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B45">
       <text>
         <t xml:space="preserve">======
 ID#AAABrntIk40
 Autor    (2023-08-29 20:18:46)
 ¿El cliente requiere que la aplicación se pueda cambiar fácilmente en el futuro?</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B60">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABrntIk5Q
-Autor    (2023-08-29 20:18:46)
-Evalúa si los analistas han sido capaces de mantener estables los requerimientos en el pasado, minimizando los cambios del software.</t>
       </text>
     </comment>
     <comment authorId="0" ref="B43">
@@ -234,20 +234,20 @@
 Es una Estadística que debe actualizarse proyecto a proyecto.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B56">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABrntIk5U
+Autor    (2023-08-29 20:18:46)
+¿Ya trabajado el equipo en el area (dominio) de la aplicación?</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B47">
       <text>
         <t xml:space="preserve">======
 ID#AAABrntIk44
 Autor    (2023-08-29 20:18:46)
 ¿Es suficiente con las prestaciones de seguridad normales, o hace falta algo especial?</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B56">
-      <text>
-        <t xml:space="preserve">======
-ID#AAABrntIk5U
-Autor    (2023-08-29 20:18:46)
-¿Ya trabajado el equipo en el area (dominio) de la aplicación?</t>
       </text>
     </comment>
     <comment authorId="0" ref="B40">
@@ -261,7 +261,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miDRy+W9KVWg82KnAELgEU5iYTOcg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgiCSDjxRW/CQneFUGHunEPN4Y6qw=="/>
     </ext>
   </extLst>
 </comments>
